--- a/medicine/Psychotrope/Corsendonk/Corsendonk.xlsx
+++ b/medicine/Psychotrope/Corsendonk/Corsendonk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Corsendonk est une bière belge brassée par la Brasserie du Bocq à Purnode en province de Namur et distribuée par la brasserie Corsendonk à Vieux-Turnhout.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bières Corsendonk sont des bières d'abbaye empruntant leur nom au prieuré de Corsendonk (en néerl. priorij van Corsendonk) un ancien monastère augustinien à Vieux-Turnhout. Ce prieuré, fondé en 1395 sur des terres données par Marie de Brabant, la fille du comte Jean III de Brabant, fut fermé d'autorité par Joseph II et ensuite démantelé (1784). L'incrustation sur verre représente la fondatrice du prieuré entourée de l'inscription Marie de Corssendonc Sigillum Monastery.
 En 1982, à l'occasion du 125e anniversaire de la commune  de Vieux-Turnhout (en néerl. Oud-Turnhout), Jef Keersmaekers, petit-fils d'Antoine Keersmaekers qui avait fondé la brasserie Corsendonk en 1906, a lancé la 'Corsendonk Pater Noster' (maintenant appelée 'Corsendonk Pater') et l'Agnus Dei' (maintenant appelée 'Corsendonk Agnus').  Comme la brasserie Corsendonk n'était plus une brasserie de production depuis 1953, ces bières ont été brassées par d'autres brasseries dont la Brasserie du Bocq qui brasse actuellement toutes les variétés.
@@ -543,7 +557,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Corsendonk se décline en 8 variétés commercialisées en bouteilles ne comportant aucune étiquette si ce n'est une languette autour du col:
 Corsendonk Agnus est une bière blonde triple titrant 7,5 % en volume d'alcool.
@@ -585,11 +601,9 @@
           <t>Source et lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[1]</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
